--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LetterTeam\웹버전준비\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LetterTeam\Webversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="149">
   <si>
     <t>IPC분류</t>
   </si>
@@ -30,13 +30,442 @@
     <t>YourRef</t>
   </si>
   <si>
+    <t>갱신과태마감일</t>
+  </si>
+  <si>
+    <t>갱신관리여부</t>
+  </si>
+  <si>
+    <t>갱신등록료</t>
+  </si>
+  <si>
+    <t>갱신마감일</t>
+  </si>
+  <si>
+    <t>공개번호</t>
+  </si>
+  <si>
+    <t>공개신청일</t>
+  </si>
+  <si>
+    <t>공개일</t>
+  </si>
+  <si>
+    <t>공고결정일</t>
+  </si>
+  <si>
+    <t>공고번호</t>
+  </si>
+  <si>
+    <t>공고일</t>
+  </si>
+  <si>
+    <t>구분</t>
+  </si>
+  <si>
+    <t>국내우선권주장마감일</t>
+  </si>
+  <si>
+    <t>국내우선권주장여부</t>
+  </si>
+  <si>
+    <t>국내우선권주장일</t>
+  </si>
+  <si>
+    <t>국문명칭</t>
+  </si>
+  <si>
+    <t>국제출원번호</t>
+  </si>
+  <si>
+    <t>국제출원일</t>
+  </si>
+  <si>
+    <t>권리</t>
+  </si>
+  <si>
+    <t>권리존속기간</t>
+  </si>
+  <si>
+    <t>기술평가결정결과</t>
+  </si>
+  <si>
+    <t>기술평가결정일</t>
+  </si>
+  <si>
+    <t>기술평가번호</t>
+  </si>
+  <si>
+    <t>기술평가신청일</t>
+  </si>
+  <si>
+    <t>납부차수</t>
+  </si>
+  <si>
+    <t>담당변리사</t>
+  </si>
+  <si>
+    <t>도면수</t>
+  </si>
+  <si>
+    <t>도수</t>
+  </si>
+  <si>
+    <t>독립항</t>
+  </si>
+  <si>
+    <t>등급</t>
+  </si>
+  <si>
+    <t>등록결정일</t>
+  </si>
+  <si>
+    <t>등록공고번호</t>
+  </si>
+  <si>
+    <t>등록공고일</t>
+  </si>
+  <si>
+    <t>등록과태마감일</t>
+  </si>
+  <si>
+    <t>등록권리자</t>
+  </si>
+  <si>
+    <t>등록마감일</t>
+  </si>
+  <si>
+    <t>등록번호</t>
+  </si>
+  <si>
+    <t>등록일</t>
+  </si>
+  <si>
+    <t>등록접수일</t>
+  </si>
+  <si>
+    <t>류(Class)</t>
+  </si>
+  <si>
+    <t>명세서</t>
+  </si>
+  <si>
+    <t>발명자</t>
+  </si>
+  <si>
+    <t>발명자(영문)</t>
+  </si>
+  <si>
+    <t>부서</t>
+  </si>
+  <si>
+    <t>분류출원번호</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>사건담당자</t>
+  </si>
+  <si>
+    <t>사건마감일</t>
+  </si>
+  <si>
+    <t>상표조사여부</t>
+  </si>
+  <si>
+    <t>신법신청일</t>
+  </si>
+  <si>
+    <t>심사청구일</t>
+  </si>
+  <si>
+    <t>심청마감일</t>
+  </si>
+  <si>
+    <t>연차과태일</t>
+  </si>
+  <si>
+    <t>연차관리여부</t>
+  </si>
+  <si>
+    <t>연차료</t>
+  </si>
+  <si>
+    <t>연차마감일</t>
+  </si>
+  <si>
+    <t>영문명칭</t>
+  </si>
+  <si>
+    <t>우선권국가</t>
+  </si>
+  <si>
+    <t>우선권번호</t>
+  </si>
+  <si>
+    <t>우선권주장일</t>
+  </si>
+  <si>
+    <t>우심사결정일</t>
+  </si>
+  <si>
+    <t>우심사청구일</t>
+  </si>
+  <si>
+    <t>원등록번호</t>
+  </si>
+  <si>
+    <t>원등록일</t>
+  </si>
+  <si>
+    <t>원출원번호</t>
+  </si>
+  <si>
+    <t>원출원일</t>
+  </si>
+  <si>
+    <t>위임업체</t>
+  </si>
+  <si>
+    <t>위임일</t>
+  </si>
+  <si>
+    <t>의뢰인</t>
+  </si>
+  <si>
+    <t>이중출원번호</t>
+  </si>
+  <si>
+    <t>이중출원일</t>
+  </si>
+  <si>
+    <t>재출원번호</t>
+  </si>
+  <si>
+    <t>재출원일</t>
+  </si>
+  <si>
+    <t>접근코드</t>
+  </si>
+  <si>
+    <t>접수일</t>
+  </si>
+  <si>
+    <t>제안명칭</t>
+  </si>
+  <si>
+    <t>종속항</t>
+  </si>
+  <si>
+    <t>진행사항 서류접수일</t>
+  </si>
+  <si>
+    <t>진행사항 서류제출일</t>
+  </si>
+  <si>
+    <t>진행사항 통지일</t>
+  </si>
+  <si>
+    <t>청구범위마감일</t>
+  </si>
+  <si>
+    <t>청구범위제출일</t>
+  </si>
+  <si>
+    <t>청구범위통지일</t>
+  </si>
+  <si>
+    <t>초안발송일</t>
+  </si>
+  <si>
+    <t>최종항수</t>
+  </si>
+  <si>
+    <t>최초우선권주장일</t>
+  </si>
+  <si>
+    <t>최초출원번호</t>
+  </si>
+  <si>
+    <t>최초출원일</t>
+  </si>
+  <si>
+    <t>출원구분</t>
+  </si>
+  <si>
+    <t>출원마감일</t>
+  </si>
+  <si>
+    <t>출원번호</t>
+  </si>
+  <si>
+    <t>출원인</t>
+  </si>
+  <si>
+    <t>출원인(영문)</t>
+  </si>
+  <si>
+    <t>출원인관리번호</t>
+  </si>
+  <si>
+    <t>출원인담당자</t>
+  </si>
+  <si>
+    <t>출원일</t>
+  </si>
+  <si>
+    <t>출원종류</t>
+  </si>
+  <si>
+    <t>출원지시일</t>
+  </si>
+  <si>
+    <t>포기내용</t>
+  </si>
+  <si>
+    <t>포기취하일</t>
+  </si>
+  <si>
+    <t>표장이미지</t>
+  </si>
+  <si>
+    <t>해외진행방법</t>
+  </si>
+  <si>
+    <t>해외진행여부</t>
+  </si>
+  <si>
+    <t>해외출원마감일</t>
+  </si>
+  <si>
+    <t>해외출원마감일2</t>
+  </si>
+  <si>
+    <t>해외출원일</t>
+  </si>
+  <si>
+    <t>현재담당자</t>
+  </si>
+  <si>
+    <t>현재상태</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>PE23-7028158/UK</t>
-  </si>
-  <si>
-    <t>P/76285.KR02</t>
+    <t>PA22-7025928/DE</t>
+  </si>
+  <si>
+    <t>43977-KR</t>
+  </si>
+  <si>
+    <t>10-2022-0121857</t>
+  </si>
+  <si>
+    <t>2022-09-01</t>
+  </si>
+  <si>
+    <t>외국</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>주변 환경에 적응하는 에어로졸 발생 장치</t>
+  </si>
+  <si>
+    <t>PCT/EP2021/051595</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>특허</t>
+  </si>
+  <si>
+    <t>강철중</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>누노 바티스타, 루이/칼리, 리카르도/치모울리스, 다리아/사라우이, 아델라</t>
+  </si>
+  <si>
+    <t>NUNO BATISTA, Rui/CALI, Ricardo/TZIMOULIS, Daria/SAHRAOUI, Adela</t>
+  </si>
+  <si>
+    <t>전자</t>
+  </si>
+  <si>
+    <t>PMI ref : FTR2651/KR_x000D_ 비고: 연차료납부X</t>
+  </si>
+  <si>
+    <t>유자선</t>
+  </si>
+  <si>
+    <t>2025-08-24</t>
+  </si>
+  <si>
+    <t>2022-07-26</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>AEROSOL-GENERATING DEVICE WITH ADAPTION TO AMBIENT ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>20386004.4</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>Abitz &amp; Partner mbB</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>등록출원</t>
+  </si>
+  <si>
+    <t>2022-08-30</t>
+  </si>
+  <si>
+    <t>10-2022-7025928</t>
+  </si>
+  <si>
+    <t>필립모리스 프로덕츠 에스.에이.</t>
+  </si>
+  <si>
+    <t>Philip Morris Products S.A.</t>
+  </si>
+  <si>
+    <t>FTR2651/KR</t>
+  </si>
+  <si>
+    <t>신규출원</t>
+  </si>
+  <si>
+    <t>등록료 마감</t>
   </si>
 </sst>
 </file>
@@ -117,13 +546,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,20 +837,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:DF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" customWidth="1"/>
+    <col min="15" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="58.5703125" customWidth="1"/>
+    <col min="19" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="36" width="11.7109375" customWidth="1"/>
+    <col min="37" max="37" width="35.140625" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" customWidth="1"/>
+    <col min="39" max="39" width="18.7109375" customWidth="1"/>
+    <col min="40" max="40" width="16.42578125" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" customWidth="1"/>
+    <col min="42" max="42" width="23.42578125" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="93.7109375" customWidth="1"/>
+    <col min="45" max="47" width="11.7109375" customWidth="1"/>
+    <col min="48" max="48" width="117.140625" customWidth="1"/>
+    <col min="49" max="49" width="11.7109375" customWidth="1"/>
+    <col min="50" max="50" width="16.42578125" customWidth="1"/>
+    <col min="51" max="52" width="11.7109375" customWidth="1"/>
+    <col min="53" max="54" width="16.42578125" customWidth="1"/>
+    <col min="55" max="57" width="11.7109375" customWidth="1"/>
+    <col min="58" max="58" width="16.42578125" customWidth="1"/>
+    <col min="59" max="59" width="11.7109375" customWidth="1"/>
+    <col min="60" max="60" width="16.42578125" customWidth="1"/>
+    <col min="61" max="68" width="11.7109375" customWidth="1"/>
+    <col min="69" max="70" width="16.42578125" customWidth="1"/>
+    <col min="71" max="71" width="35.140625" customWidth="1"/>
+    <col min="72" max="75" width="11.7109375" customWidth="1"/>
+    <col min="76" max="77" width="16.42578125" customWidth="1"/>
+    <col min="78" max="85" width="11.7109375" customWidth="1"/>
+    <col min="86" max="86" width="16.42578125" customWidth="1"/>
+    <col min="87" max="92" width="11.7109375" customWidth="1"/>
+    <col min="93" max="93" width="23.42578125" customWidth="1"/>
+    <col min="94" max="94" width="30.42578125" customWidth="1"/>
+    <col min="95" max="95" width="11.7109375" customWidth="1"/>
+    <col min="96" max="96" width="25.7109375" customWidth="1"/>
+    <col min="97" max="97" width="18.7109375" customWidth="1"/>
+    <col min="98" max="98" width="16.42578125" customWidth="1"/>
+    <col min="99" max="100" width="11.7109375" customWidth="1"/>
+    <col min="101" max="101" width="46.85546875" customWidth="1"/>
+    <col min="102" max="102" width="16.42578125" customWidth="1"/>
+    <col min="103" max="103" width="24.5703125" customWidth="1"/>
+    <col min="104" max="107" width="11.7109375" customWidth="1"/>
+    <col min="108" max="108" width="16.42578125" customWidth="1"/>
+    <col min="109" max="109" width="11.7109375" customWidth="1"/>
+    <col min="110" max="110" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,22 +907,662 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>112</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>759000</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CI2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="CJ2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CM2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CO2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CR2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CS2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="CU2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CV2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CX2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DA2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DC2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DD2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="DE2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="DF2" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>